--- a/biology/Zoologie/Clarias/Clarias.xlsx
+++ b/biology/Zoologie/Clarias/Clarias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clarias est un genre de poissons-chats de la famille des Clariidae et de l'ordre des Siluriformes.
 Le genre Clarias regroupe un certain nombre d'espèces de poissons d'eau douce. Le genre Clarias se caractérise notamment par un corps plus ou moins allongé, une tête aplatie et la présence d'une seule nageoire dorsale, s'étendant jusqu'à la nageoire caudale. La nageoire adipeuse est donc absente (à l'exception d'une espèce, possédant une nageoire adipeuse réduite). Les nageoires paires ne sont pas confluentes. Les yeux, à bord libre, sont très petits. Le genre Clarias a été divisé en 6 sous-genres. Il a été décrit par Scopoli en 1777.
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon FishBase[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FishBase :
 Clarias abbreviatus Valenciennes, 1840
 Clarias agboyiensis Sydenham, 1980
 Clarias albopunctatus Nichols &amp; La Monte, 1953
